--- a/Cucumber/testData/testData.xlsx
+++ b/Cucumber/testData/testData.xlsx
@@ -19,18 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>abcde</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">FirstName </t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>gdfg</t>
+  </si>
+  <si>
+    <t>fgfg</t>
   </si>
 </sst>
 </file>
@@ -66,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,36 +369,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1234</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
